--- a/mcmaster_excel/Metric_Titanium_Pan_Head_Phillips_Screws.xlsx
+++ b/mcmaster_excel/Metric_Titanium_Pan_Head_Phillips_Screws.xlsx
@@ -434,78 +434,90 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.,mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia., mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>SpecificationsMet</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr"/>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Grade 2 Titanium</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+          <t>Lg.,mm</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HeadDia., mm</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HeadHt., mm</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DriveSize</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>SpecificationsMet</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Pkg.</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
     </row>
@@ -525,7 +537,11 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -579,7 +595,11 @@
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -633,7 +653,11 @@
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -687,7 +711,11 @@
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -741,7 +769,11 @@
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -795,7 +827,11 @@
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -813,7 +849,11 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -867,7 +907,11 @@
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -921,7 +965,11 @@
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -975,7 +1023,11 @@
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1029,7 +1081,11 @@
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1083,7 +1139,11 @@
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1101,7 +1161,11 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1155,7 +1219,11 @@
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1209,7 +1277,11 @@
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1263,7 +1335,11 @@
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1317,7 +1393,11 @@
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1371,7 +1451,11 @@
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1389,7 +1473,11 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1443,7 +1531,11 @@
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1497,7 +1589,11 @@
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1551,7 +1647,11 @@
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1605,7 +1705,11 @@
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1659,7 +1763,11 @@
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
